--- a/arimax_train_predictions_and_data.xlsx
+++ b/arimax_train_predictions_and_data.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B416"/>
+  <dimension ref="A1:B417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,3321 +454,3329 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44927.00069444445</v>
+        <v>44927</v>
       </c>
       <c r="B2" t="n">
-        <v>26.55159737631198</v>
+        <v>25.85212005797611</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44927.00138888889</v>
+        <v>44927.00069444445</v>
       </c>
       <c r="B3" t="n">
-        <v>26.63745722621962</v>
+        <v>26.55159737631198</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44927.00208333333</v>
+        <v>44927.00138888889</v>
       </c>
       <c r="B4" t="n">
-        <v>26.6578010267909</v>
+        <v>26.63745722621962</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44927.00277777778</v>
+        <v>44927.00208333333</v>
       </c>
       <c r="B5" t="n">
-        <v>27.01060848365245</v>
+        <v>26.6578010267909</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44927.00347222222</v>
+        <v>44927.00277777778</v>
       </c>
       <c r="B6" t="n">
-        <v>28.04497481148853</v>
+        <v>27.01060848365245</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44927.00416666667</v>
+        <v>44927.00347222222</v>
       </c>
       <c r="B7" t="n">
-        <v>25.97398235298616</v>
+        <v>28.04497481148853</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44927.00486111111</v>
+        <v>44927.00416666667</v>
       </c>
       <c r="B8" t="n">
-        <v>25.85035633438968</v>
+        <v>25.97398235298616</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44927.00555555556</v>
+        <v>44927.00486111111</v>
       </c>
       <c r="B9" t="n">
-        <v>27.61332738124704</v>
+        <v>25.85035633438968</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44927.00625</v>
+        <v>44927.00555555556</v>
       </c>
       <c r="B10" t="n">
-        <v>26.20585421711626</v>
+        <v>27.61332738124704</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44927.00694444445</v>
+        <v>44927.00625</v>
       </c>
       <c r="B11" t="n">
-        <v>27.11426251770123</v>
+        <v>26.20585421711626</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44927.00763888889</v>
+        <v>44927.00694444445</v>
       </c>
       <c r="B12" t="n">
-        <v>26.6767931423606</v>
+        <v>27.11426251770123</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44927.00833333333</v>
+        <v>44927.00763888889</v>
       </c>
       <c r="B13" t="n">
-        <v>26.49876115954132</v>
+        <v>26.6767931423606</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44927.00902777778</v>
+        <v>44927.00833333333</v>
       </c>
       <c r="B14" t="n">
-        <v>27.59782405050011</v>
+        <v>26.49876115954132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44927.00972222222</v>
+        <v>44927.00902777778</v>
       </c>
       <c r="B15" t="n">
-        <v>25.43856714637113</v>
+        <v>27.59782405050011</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44927.01041666666</v>
+        <v>44927.00972222222</v>
       </c>
       <c r="B16" t="n">
-        <v>25.09833147919363</v>
+        <v>25.43856714637113</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44927.01111111111</v>
+        <v>44927.01041666666</v>
       </c>
       <c r="B17" t="n">
-        <v>27.12894261717219</v>
+        <v>25.09833147919363</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44927.01180555556</v>
+        <v>44927.01111111111</v>
       </c>
       <c r="B18" t="n">
-        <v>26.93951741925836</v>
+        <v>27.12894261717219</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44927.0125</v>
+        <v>44927.01180555556</v>
       </c>
       <c r="B19" t="n">
-        <v>27.71223749506339</v>
+        <v>26.93951741925836</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44927.01319444444</v>
+        <v>44927.0125</v>
       </c>
       <c r="B20" t="n">
-        <v>25.65713154470726</v>
+        <v>27.71223749506339</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44927.01388888889</v>
+        <v>44927.01319444444</v>
       </c>
       <c r="B21" t="n">
-        <v>25.69982540139441</v>
+        <v>25.65713154470726</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44927.01458333333</v>
+        <v>44927.01388888889</v>
       </c>
       <c r="B22" t="n">
-        <v>26.89976835156841</v>
+        <v>25.69982540139441</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44927.01527777778</v>
+        <v>44927.01458333333</v>
       </c>
       <c r="B23" t="n">
-        <v>27.08099224347073</v>
+        <v>26.89976835156841</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44927.01597222222</v>
+        <v>44927.01527777778</v>
       </c>
       <c r="B24" t="n">
-        <v>25.85261326521106</v>
+        <v>27.08099224347073</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44927.01666666667</v>
+        <v>44927.01597222222</v>
       </c>
       <c r="B25" t="n">
-        <v>26.00104790722133</v>
+        <v>25.85261326521106</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44927.01736111111</v>
+        <v>44927.01666666667</v>
       </c>
       <c r="B26" t="n">
-        <v>30.65547646522251</v>
+        <v>26.00104790722133</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44927.01805555556</v>
+        <v>44927.01736111111</v>
       </c>
       <c r="B27" t="n">
-        <v>27.68392359704466</v>
+        <v>30.65547646522251</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44927.01875</v>
+        <v>44927.01805555556</v>
       </c>
       <c r="B28" t="n">
-        <v>28.50473136796021</v>
+        <v>27.68392359704466</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44927.01944444444</v>
+        <v>44927.01875</v>
       </c>
       <c r="B29" t="n">
-        <v>27.66224022849823</v>
+        <v>28.50473136796021</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44927.02013888889</v>
+        <v>44927.01944444444</v>
       </c>
       <c r="B30" t="n">
-        <v>26.92118830150728</v>
+        <v>27.66224022849823</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44927.02083333334</v>
+        <v>44927.02013888889</v>
       </c>
       <c r="B31" t="n">
-        <v>29.22699763629605</v>
+        <v>26.92118830150728</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44927.02152777778</v>
+        <v>44927.02083333334</v>
       </c>
       <c r="B32" t="n">
-        <v>29.02485935269214</v>
+        <v>29.22699763629605</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44927.02222222222</v>
+        <v>44927.02152777778</v>
       </c>
       <c r="B33" t="n">
-        <v>25.99418985320508</v>
+        <v>29.02485935269214</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44927.02291666667</v>
+        <v>44927.02222222222</v>
       </c>
       <c r="B34" t="n">
-        <v>26.65349416608607</v>
+        <v>25.99418985320508</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44927.02361111111</v>
+        <v>44927.02291666667</v>
       </c>
       <c r="B35" t="n">
-        <v>28.99236128424249</v>
+        <v>26.65349416608607</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44927.02430555555</v>
+        <v>44927.02361111111</v>
       </c>
       <c r="B36" t="n">
-        <v>28.05623115043802</v>
+        <v>28.99236128424249</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44927.025</v>
+        <v>44927.02430555555</v>
       </c>
       <c r="B37" t="n">
-        <v>27.26140320915159</v>
+        <v>28.05623115043802</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44927.02569444444</v>
+        <v>44927.025</v>
       </c>
       <c r="B38" t="n">
-        <v>27.95992705540084</v>
+        <v>27.26140320915159</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44927.02638888889</v>
+        <v>44927.02569444444</v>
       </c>
       <c r="B39" t="n">
-        <v>26.81523224885835</v>
+        <v>27.95992705540084</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44927.02708333333</v>
+        <v>44927.02638888889</v>
       </c>
       <c r="B40" t="n">
-        <v>27.55474540779868</v>
+        <v>26.81523224885835</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44927.02777777778</v>
+        <v>44927.02708333333</v>
       </c>
       <c r="B41" t="n">
-        <v>27.01362618413374</v>
+        <v>27.55474540779868</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44927.02847222222</v>
+        <v>44927.02777777778</v>
       </c>
       <c r="B42" t="n">
-        <v>27.56043914325747</v>
+        <v>27.01362618413374</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44927.02916666667</v>
+        <v>44927.02847222222</v>
       </c>
       <c r="B43" t="n">
-        <v>26.15259011719764</v>
+        <v>27.56043914325747</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44927.02986111111</v>
+        <v>44927.02916666667</v>
       </c>
       <c r="B44" t="n">
-        <v>28.0217850521212</v>
+        <v>26.15259011719764</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44927.03055555555</v>
+        <v>44927.02986111111</v>
       </c>
       <c r="B45" t="n">
-        <v>28.94972168778729</v>
+        <v>28.0217850521212</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44927.03125</v>
+        <v>44927.03055555555</v>
       </c>
       <c r="B46" t="n">
-        <v>26.25154376255297</v>
+        <v>28.94972168778729</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44927.03194444445</v>
+        <v>44927.03125</v>
       </c>
       <c r="B47" t="n">
-        <v>26.04580442512718</v>
+        <v>26.25154376255297</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44927.03263888889</v>
+        <v>44927.03194444445</v>
       </c>
       <c r="B48" t="n">
-        <v>27.08540520627004</v>
+        <v>26.04580442512718</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44927.03333333333</v>
+        <v>44927.03263888889</v>
       </c>
       <c r="B49" t="n">
-        <v>29.44863800046669</v>
+        <v>27.08540520627004</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44927.03402777778</v>
+        <v>44927.03333333333</v>
       </c>
       <c r="B50" t="n">
-        <v>30.1514766034261</v>
+        <v>29.44863800046669</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44927.03472222222</v>
+        <v>44927.03402777778</v>
       </c>
       <c r="B51" t="n">
-        <v>28.24517920594645</v>
+        <v>30.1514766034261</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44927.03541666667</v>
+        <v>44927.03472222222</v>
       </c>
       <c r="B52" t="n">
-        <v>28.27090890389513</v>
+        <v>28.24517920594645</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44927.03611111111</v>
+        <v>44927.03541666667</v>
       </c>
       <c r="B53" t="n">
-        <v>29.24871959937349</v>
+        <v>28.27090890389513</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44927.03680555556</v>
+        <v>44927.03611111111</v>
       </c>
       <c r="B54" t="n">
-        <v>27.75214550077725</v>
+        <v>29.24871959937349</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44927.0375</v>
+        <v>44927.03680555556</v>
       </c>
       <c r="B55" t="n">
-        <v>29.07641020903058</v>
+        <v>27.75214550077725</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44927.03819444445</v>
+        <v>44927.0375</v>
       </c>
       <c r="B56" t="n">
-        <v>25.52123068250505</v>
+        <v>29.07641020903058</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44927.03888888889</v>
+        <v>44927.03819444445</v>
       </c>
       <c r="B57" t="n">
-        <v>25.73321049359615</v>
+        <v>25.52123068250505</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44927.03958333333</v>
+        <v>44927.03888888889</v>
       </c>
       <c r="B58" t="n">
-        <v>26.49092534590736</v>
+        <v>25.73321049359615</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44927.04027777778</v>
+        <v>44927.03958333333</v>
       </c>
       <c r="B59" t="n">
-        <v>27.29098488383034</v>
+        <v>26.49092534590736</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44927.04097222222</v>
+        <v>44927.04027777778</v>
       </c>
       <c r="B60" t="n">
-        <v>28.15819475434272</v>
+        <v>27.29098488383034</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44927.04166666666</v>
+        <v>44927.04097222222</v>
       </c>
       <c r="B61" t="n">
-        <v>28.1925083927189</v>
+        <v>28.15819475434272</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44927.04236111111</v>
+        <v>44927.04166666666</v>
       </c>
       <c r="B62" t="n">
-        <v>29.10547221740897</v>
+        <v>28.1925083927189</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44927.04305555556</v>
+        <v>44927.04236111111</v>
       </c>
       <c r="B63" t="n">
-        <v>27.5564413431804</v>
+        <v>29.10547221740897</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44927.04375</v>
+        <v>44927.04305555556</v>
       </c>
       <c r="B64" t="n">
-        <v>26.28390823908299</v>
+        <v>27.5564413431804</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44927.04444444444</v>
+        <v>44927.04375</v>
       </c>
       <c r="B65" t="n">
-        <v>27.99027788389665</v>
+        <v>26.28390823908299</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44927.04513888889</v>
+        <v>44927.04444444444</v>
       </c>
       <c r="B66" t="n">
-        <v>29.79507517498033</v>
+        <v>27.99027788389665</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44927.04583333333</v>
+        <v>44927.04513888889</v>
       </c>
       <c r="B67" t="n">
-        <v>30.67819028780587</v>
+        <v>29.79507517498033</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44927.04652777778</v>
+        <v>44927.04583333333</v>
       </c>
       <c r="B68" t="n">
-        <v>29.72903504808474</v>
+        <v>30.67819028780587</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44927.04722222222</v>
+        <v>44927.04652777778</v>
       </c>
       <c r="B69" t="n">
-        <v>27.58861622483405</v>
+        <v>29.72903504808474</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44927.04791666667</v>
+        <v>44927.04722222222</v>
       </c>
       <c r="B70" t="n">
-        <v>27.57908822918558</v>
+        <v>27.58861622483405</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44927.04861111111</v>
+        <v>44927.04791666667</v>
       </c>
       <c r="B71" t="n">
-        <v>26.80986415929965</v>
+        <v>27.57908822918558</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44927.04930555556</v>
+        <v>44927.04861111111</v>
       </c>
       <c r="B72" t="n">
-        <v>27.64430804016646</v>
+        <v>26.80986415929965</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44927.05</v>
+        <v>44927.04930555556</v>
       </c>
       <c r="B73" t="n">
-        <v>27.996493522846</v>
+        <v>27.64430804016646</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44927.05069444444</v>
+        <v>44927.05</v>
       </c>
       <c r="B74" t="n">
-        <v>28.09811873205419</v>
+        <v>27.996493522846</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44927.05138888889</v>
+        <v>44927.05069444444</v>
       </c>
       <c r="B75" t="n">
-        <v>26.74550345539297</v>
+        <v>28.09811873205419</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44927.05208333334</v>
+        <v>44927.05138888889</v>
       </c>
       <c r="B76" t="n">
-        <v>25.93994945640319</v>
+        <v>26.74550345539297</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44927.05277777778</v>
+        <v>44927.05208333334</v>
       </c>
       <c r="B77" t="n">
-        <v>26.25217333193668</v>
+        <v>25.93994945640319</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44927.05347222222</v>
+        <v>44927.05277777778</v>
       </c>
       <c r="B78" t="n">
-        <v>27.75154999159891</v>
+        <v>26.25217333193668</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44927.05416666667</v>
+        <v>44927.05347222222</v>
       </c>
       <c r="B79" t="n">
-        <v>26.77813187584973</v>
+        <v>27.75154999159891</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44927.05486111111</v>
+        <v>44927.05416666667</v>
       </c>
       <c r="B80" t="n">
-        <v>25.81748967798363</v>
+        <v>26.77813187584973</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44927.05555555555</v>
+        <v>44927.05486111111</v>
       </c>
       <c r="B81" t="n">
-        <v>27.16125960513666</v>
+        <v>25.81748967798363</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44927.05625</v>
+        <v>44927.05555555555</v>
       </c>
       <c r="B82" t="n">
-        <v>25.80341085954431</v>
+        <v>27.16125960513666</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44927.05694444444</v>
+        <v>44927.05625</v>
       </c>
       <c r="B83" t="n">
-        <v>26.92182900629815</v>
+        <v>25.80341085954431</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44927.05763888889</v>
+        <v>44927.05694444444</v>
       </c>
       <c r="B84" t="n">
-        <v>29.12934861900208</v>
+        <v>26.92182900629815</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44927.05833333333</v>
+        <v>44927.05763888889</v>
       </c>
       <c r="B85" t="n">
-        <v>25.31886892326445</v>
+        <v>29.12934861900208</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44927.05902777778</v>
+        <v>44927.05833333333</v>
       </c>
       <c r="B86" t="n">
-        <v>26.02452766437498</v>
+        <v>25.31886892326445</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44927.05972222222</v>
+        <v>44927.05902777778</v>
       </c>
       <c r="B87" t="n">
-        <v>25.4689696482656</v>
+        <v>26.02452766437498</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44927.06041666667</v>
+        <v>44927.05972222222</v>
       </c>
       <c r="B88" t="n">
-        <v>25.27599932356963</v>
+        <v>25.4689696482656</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44927.06111111111</v>
+        <v>44927.06041666667</v>
       </c>
       <c r="B89" t="n">
-        <v>27.70006182000181</v>
+        <v>25.27599932356963</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44927.06180555555</v>
+        <v>44927.06111111111</v>
       </c>
       <c r="B90" t="n">
-        <v>27.1898216182123</v>
+        <v>27.70006182000181</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44927.0625</v>
+        <v>44927.06180555555</v>
       </c>
       <c r="B91" t="n">
-        <v>26.74777695633357</v>
+        <v>27.1898216182123</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44927.06319444445</v>
+        <v>44927.0625</v>
       </c>
       <c r="B92" t="n">
-        <v>29.62355739765826</v>
+        <v>26.74777695633357</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44927.06388888889</v>
+        <v>44927.06319444445</v>
       </c>
       <c r="B93" t="n">
-        <v>29.8158218953428</v>
+        <v>29.62355739765826</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44927.06458333333</v>
+        <v>44927.06388888889</v>
       </c>
       <c r="B94" t="n">
-        <v>27.99058074026398</v>
+        <v>29.8158218953428</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44927.06527777778</v>
+        <v>44927.06458333333</v>
       </c>
       <c r="B95" t="n">
-        <v>28.28515195461302</v>
+        <v>27.99058074026398</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44927.06597222222</v>
+        <v>44927.06527777778</v>
       </c>
       <c r="B96" t="n">
-        <v>26.10703148771855</v>
+        <v>28.28515195461302</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44927.06666666667</v>
+        <v>44927.06597222222</v>
       </c>
       <c r="B97" t="n">
-        <v>27.6060732093037</v>
+        <v>26.10703148771855</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44927.06736111111</v>
+        <v>44927.06666666667</v>
       </c>
       <c r="B98" t="n">
-        <v>29.4242998866511</v>
+        <v>27.6060732093037</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44927.06805555556</v>
+        <v>44927.06736111111</v>
       </c>
       <c r="B99" t="n">
-        <v>27.71258772855225</v>
+        <v>29.4242998866511</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44927.06875</v>
+        <v>44927.06805555556</v>
       </c>
       <c r="B100" t="n">
-        <v>26.19164124957829</v>
+        <v>27.71258772855225</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44927.06944444445</v>
+        <v>44927.06875</v>
       </c>
       <c r="B101" t="n">
-        <v>27.7119851898257</v>
+        <v>26.19164124957829</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44927.07013888889</v>
+        <v>44927.06944444445</v>
       </c>
       <c r="B102" t="n">
-        <v>30.61035225354397</v>
+        <v>27.7119851898257</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44927.07083333333</v>
+        <v>44927.07013888889</v>
       </c>
       <c r="B103" t="n">
-        <v>26.69030122674674</v>
+        <v>30.61035225354397</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44927.07152777778</v>
+        <v>44927.07083333333</v>
       </c>
       <c r="B104" t="n">
-        <v>24.97133933549133</v>
+        <v>26.69030122674674</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44927.07222222222</v>
+        <v>44927.07152777778</v>
       </c>
       <c r="B105" t="n">
-        <v>27.21591587993043</v>
+        <v>24.97133933549133</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44927.07291666666</v>
+        <v>44927.07222222222</v>
       </c>
       <c r="B106" t="n">
-        <v>27.07772702335631</v>
+        <v>27.21591587993043</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44927.07361111111</v>
+        <v>44927.07291666666</v>
       </c>
       <c r="B107" t="n">
-        <v>24.86294880406407</v>
+        <v>27.07772702335631</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44927.07430555556</v>
+        <v>44927.07361111111</v>
       </c>
       <c r="B108" t="n">
-        <v>25.56216868543136</v>
+        <v>24.86294880406407</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44927.075</v>
+        <v>44927.07430555556</v>
       </c>
       <c r="B109" t="n">
-        <v>27.43676923571735</v>
+        <v>25.56216868543136</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44927.07569444444</v>
+        <v>44927.075</v>
       </c>
       <c r="B110" t="n">
-        <v>24.80444725902806</v>
+        <v>27.43676923571735</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44927.07638888889</v>
+        <v>44927.07569444444</v>
       </c>
       <c r="B111" t="n">
-        <v>26.06328252796174</v>
+        <v>24.80444725902806</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44927.07708333333</v>
+        <v>44927.07638888889</v>
       </c>
       <c r="B112" t="n">
-        <v>22.28623669973884</v>
+        <v>26.06328252796174</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44927.07777777778</v>
+        <v>44927.07708333333</v>
       </c>
       <c r="B113" t="n">
-        <v>26.29623695206057</v>
+        <v>22.28623669973884</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44927.07847222222</v>
+        <v>44927.07777777778</v>
       </c>
       <c r="B114" t="n">
-        <v>25.79770407608718</v>
+        <v>26.29623695206057</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44927.07916666667</v>
+        <v>44927.07847222222</v>
       </c>
       <c r="B115" t="n">
-        <v>27.70486539398057</v>
+        <v>25.79770407608718</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44927.07986111111</v>
+        <v>44927.07916666667</v>
       </c>
       <c r="B116" t="n">
-        <v>25.15276650894556</v>
+        <v>27.70486539398057</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44927.08055555556</v>
+        <v>44927.07986111111</v>
       </c>
       <c r="B117" t="n">
-        <v>26.48714490266277</v>
+        <v>25.15276650894556</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44927.08125</v>
+        <v>44927.08055555556</v>
       </c>
       <c r="B118" t="n">
-        <v>26.27092323299911</v>
+        <v>26.48714490266277</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44927.08194444444</v>
+        <v>44927.08125</v>
       </c>
       <c r="B119" t="n">
-        <v>22.36578116750094</v>
+        <v>26.27092323299911</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44927.08263888889</v>
+        <v>44927.08194444444</v>
       </c>
       <c r="B120" t="n">
-        <v>29.40824083997383</v>
+        <v>22.36578116750094</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44927.08333333334</v>
+        <v>44927.08263888889</v>
       </c>
       <c r="B121" t="n">
-        <v>22.57211119054709</v>
+        <v>29.40824083997383</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44927.08402777778</v>
+        <v>44927.08333333334</v>
       </c>
       <c r="B122" t="n">
-        <v>22.14894268481933</v>
+        <v>22.57211119054709</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44927.08472222222</v>
+        <v>44927.08402777778</v>
       </c>
       <c r="B123" t="n">
-        <v>32.19270607551035</v>
+        <v>22.14894268481933</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44927.08541666667</v>
+        <v>44927.08472222222</v>
       </c>
       <c r="B124" t="n">
-        <v>25.42132867712805</v>
+        <v>32.19270607551035</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44927.08611111111</v>
+        <v>44927.08541666667</v>
       </c>
       <c r="B125" t="n">
-        <v>23.76470758181575</v>
+        <v>25.42132867712805</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44927.08680555555</v>
+        <v>44927.08611111111</v>
       </c>
       <c r="B126" t="n">
-        <v>24.67064519198941</v>
+        <v>23.76470758181575</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44927.0875</v>
+        <v>44927.08680555555</v>
       </c>
       <c r="B127" t="n">
-        <v>25.86145184742958</v>
+        <v>24.67064519198941</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44927.08819444444</v>
+        <v>44927.0875</v>
       </c>
       <c r="B128" t="n">
-        <v>26.67508926296382</v>
+        <v>25.86145184742958</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44927.08888888889</v>
+        <v>44927.08819444444</v>
       </c>
       <c r="B129" t="n">
-        <v>27.2881023295271</v>
+        <v>26.67508926296382</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44927.08958333333</v>
+        <v>44927.08888888889</v>
       </c>
       <c r="B130" t="n">
-        <v>28.01906528492031</v>
+        <v>27.2881023295271</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44927.09027777778</v>
+        <v>44927.08958333333</v>
       </c>
       <c r="B131" t="n">
-        <v>26.52386774448768</v>
+        <v>28.01906528492031</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44927.09097222222</v>
+        <v>44927.09027777778</v>
       </c>
       <c r="B132" t="n">
-        <v>25.14706752102295</v>
+        <v>26.52386774448768</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44927.09166666667</v>
+        <v>44927.09097222222</v>
       </c>
       <c r="B133" t="n">
-        <v>25.04940143158741</v>
+        <v>25.14706752102295</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44927.09236111111</v>
+        <v>44927.09166666667</v>
       </c>
       <c r="B134" t="n">
-        <v>21.91326920572238</v>
+        <v>25.04940143158741</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44927.09305555555</v>
+        <v>44927.09236111111</v>
       </c>
       <c r="B135" t="n">
-        <v>28.59818891387808</v>
+        <v>21.91326920572238</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44927.09375</v>
+        <v>44927.09305555555</v>
       </c>
       <c r="B136" t="n">
-        <v>26.47309604582951</v>
+        <v>28.59818891387808</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44927.09444444445</v>
+        <v>44927.09375</v>
       </c>
       <c r="B137" t="n">
-        <v>25.61003979656018</v>
+        <v>26.47309604582951</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44927.09513888889</v>
+        <v>44927.09444444445</v>
       </c>
       <c r="B138" t="n">
-        <v>24.89362752667177</v>
+        <v>25.61003979656018</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44927.09583333333</v>
+        <v>44927.09513888889</v>
       </c>
       <c r="B139" t="n">
-        <v>24.5411029195367</v>
+        <v>24.89362752667177</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44927.09652777778</v>
+        <v>44927.09583333333</v>
       </c>
       <c r="B140" t="n">
-        <v>25.47135570314058</v>
+        <v>24.5411029195367</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44927.09722222222</v>
+        <v>44927.09652777778</v>
       </c>
       <c r="B141" t="n">
-        <v>24.10641266396685</v>
+        <v>25.47135570314058</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44927.09791666667</v>
+        <v>44927.09722222222</v>
       </c>
       <c r="B142" t="n">
-        <v>24.05923229557231</v>
+        <v>24.10641266396685</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44927.09861111111</v>
+        <v>44927.09791666667</v>
       </c>
       <c r="B143" t="n">
-        <v>24.92149730521032</v>
+        <v>24.05923229557231</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44927.09930555556</v>
+        <v>44927.09861111111</v>
       </c>
       <c r="B144" t="n">
-        <v>25.8573407163157</v>
+        <v>24.92149730521032</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44927.1</v>
+        <v>44927.09930555556</v>
       </c>
       <c r="B145" t="n">
-        <v>25.14870454160637</v>
+        <v>25.8573407163157</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44927.10069444445</v>
+        <v>44927.1</v>
       </c>
       <c r="B146" t="n">
-        <v>26.42087192782884</v>
+        <v>25.14870454160637</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44927.10138888889</v>
+        <v>44927.10069444445</v>
       </c>
       <c r="B147" t="n">
-        <v>27.87867050407895</v>
+        <v>26.42087192782884</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44927.10208333333</v>
+        <v>44927.10138888889</v>
       </c>
       <c r="B148" t="n">
-        <v>26.96877126115229</v>
+        <v>27.87867050407895</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44927.10277777778</v>
+        <v>44927.10208333333</v>
       </c>
       <c r="B149" t="n">
-        <v>24.83905721841727</v>
+        <v>26.96877126115229</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44927.10347222222</v>
+        <v>44927.10277777778</v>
       </c>
       <c r="B150" t="n">
-        <v>25.4174674413259</v>
+        <v>24.83905721841727</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44927.10416666666</v>
+        <v>44927.10347222222</v>
       </c>
       <c r="B151" t="n">
-        <v>26.74963387115459</v>
+        <v>25.4174674413259</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44927.10486111111</v>
+        <v>44927.10416666666</v>
       </c>
       <c r="B152" t="n">
-        <v>26.49087238370306</v>
+        <v>26.74963387115459</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44927.10555555556</v>
+        <v>44927.10486111111</v>
       </c>
       <c r="B153" t="n">
-        <v>27.82512077481874</v>
+        <v>26.49087238370306</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44927.10625</v>
+        <v>44927.10555555556</v>
       </c>
       <c r="B154" t="n">
-        <v>27.53751593313359</v>
+        <v>27.82512077481874</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44927.10694444444</v>
+        <v>44927.10625</v>
       </c>
       <c r="B155" t="n">
-        <v>27.08106558410834</v>
+        <v>27.53751593313359</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44927.10763888889</v>
+        <v>44927.10694444444</v>
       </c>
       <c r="B156" t="n">
-        <v>26.1913448197853</v>
+        <v>27.08106558410834</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44927.10833333333</v>
+        <v>44927.10763888889</v>
       </c>
       <c r="B157" t="n">
-        <v>26.46691268164454</v>
+        <v>26.1913448197853</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44927.10902777778</v>
+        <v>44927.10833333333</v>
       </c>
       <c r="B158" t="n">
-        <v>27.79161259323703</v>
+        <v>26.46691268164454</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44927.10972222222</v>
+        <v>44927.10902777778</v>
       </c>
       <c r="B159" t="n">
-        <v>28.45945433706544</v>
+        <v>27.79161259323703</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44927.11041666667</v>
+        <v>44927.10972222222</v>
       </c>
       <c r="B160" t="n">
-        <v>27.55367784115428</v>
+        <v>28.45945433706544</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44927.11111111111</v>
+        <v>44927.11041666667</v>
       </c>
       <c r="B161" t="n">
-        <v>27.86615128872333</v>
+        <v>27.55367784115428</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44927.11180555556</v>
+        <v>44927.11111111111</v>
       </c>
       <c r="B162" t="n">
-        <v>25.75472726588666</v>
+        <v>27.86615128872333</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44927.1125</v>
+        <v>44927.11180555556</v>
       </c>
       <c r="B163" t="n">
-        <v>24.90354615453983</v>
+        <v>25.75472726588666</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44927.11319444444</v>
+        <v>44927.1125</v>
       </c>
       <c r="B164" t="n">
-        <v>27.31554841285153</v>
+        <v>24.90354615453983</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44927.11388888889</v>
+        <v>44927.11319444444</v>
       </c>
       <c r="B165" t="n">
-        <v>26.44849194247165</v>
+        <v>27.31554841285153</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44927.11458333334</v>
+        <v>44927.11388888889</v>
       </c>
       <c r="B166" t="n">
-        <v>24.0521821953422</v>
+        <v>26.44849194247165</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44927.11527777778</v>
+        <v>44927.11458333334</v>
       </c>
       <c r="B167" t="n">
-        <v>23.82314363535252</v>
+        <v>24.0521821953422</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44927.11597222222</v>
+        <v>44927.11527777778</v>
       </c>
       <c r="B168" t="n">
-        <v>25.77705506001474</v>
+        <v>23.82314363535252</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44927.11666666667</v>
+        <v>44927.11597222222</v>
       </c>
       <c r="B169" t="n">
-        <v>26.5618673123697</v>
+        <v>25.77705506001474</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44927.11736111111</v>
+        <v>44927.11666666667</v>
       </c>
       <c r="B170" t="n">
-        <v>26.33579464437631</v>
+        <v>26.5618673123697</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44927.11805555555</v>
+        <v>44927.11736111111</v>
       </c>
       <c r="B171" t="n">
-        <v>30.57290537208573</v>
+        <v>26.33579464437631</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44927.11875</v>
+        <v>44927.11805555555</v>
       </c>
       <c r="B172" t="n">
-        <v>26.61544273596877</v>
+        <v>30.57290537208573</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44927.11944444444</v>
+        <v>44927.11875</v>
       </c>
       <c r="B173" t="n">
-        <v>21.53029903749556</v>
+        <v>26.61544273596877</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44927.12013888889</v>
+        <v>44927.11944444444</v>
       </c>
       <c r="B174" t="n">
-        <v>30.6828617192665</v>
+        <v>21.53029903749556</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44927.12083333333</v>
+        <v>44927.12013888889</v>
       </c>
       <c r="B175" t="n">
-        <v>22.65576577083038</v>
+        <v>30.6828617192665</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44927.12152777778</v>
+        <v>44927.12083333333</v>
       </c>
       <c r="B176" t="n">
-        <v>28.02211413979975</v>
+        <v>22.65576577083038</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44927.12222222222</v>
+        <v>44927.12152777778</v>
       </c>
       <c r="B177" t="n">
-        <v>26.97902965309892</v>
+        <v>28.02211413979975</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44927.12291666667</v>
+        <v>44927.12222222222</v>
       </c>
       <c r="B178" t="n">
-        <v>26.35516575061328</v>
+        <v>26.97902965309892</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44927.12361111111</v>
+        <v>44927.12291666667</v>
       </c>
       <c r="B179" t="n">
-        <v>24.86659845504302</v>
+        <v>26.35516575061328</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44927.12430555555</v>
+        <v>44927.12361111111</v>
       </c>
       <c r="B180" t="n">
-        <v>29.23928277362655</v>
+        <v>24.86659845504302</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44927.125</v>
+        <v>44927.12430555555</v>
       </c>
       <c r="B181" t="n">
-        <v>23.93170001586025</v>
+        <v>29.23928277362655</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44927.12569444445</v>
+        <v>44927.125</v>
       </c>
       <c r="B182" t="n">
-        <v>24.66499905928071</v>
+        <v>23.93170001586025</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44927.12638888889</v>
+        <v>44927.12569444445</v>
       </c>
       <c r="B183" t="n">
-        <v>24.47083570160223</v>
+        <v>24.66499905928071</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44927.12708333333</v>
+        <v>44927.12638888889</v>
       </c>
       <c r="B184" t="n">
-        <v>23.37750568121264</v>
+        <v>24.47083570160223</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44927.12777777778</v>
+        <v>44927.12708333333</v>
       </c>
       <c r="B185" t="n">
-        <v>25.92834400138865</v>
+        <v>23.37750568121264</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>44927.12847222222</v>
+        <v>44927.12777777778</v>
       </c>
       <c r="B186" t="n">
-        <v>27.24136925115827</v>
+        <v>25.92834400138865</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>44927.12916666667</v>
+        <v>44927.12847222222</v>
       </c>
       <c r="B187" t="n">
-        <v>25.64283473994474</v>
+        <v>27.24136925115827</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44927.12986111111</v>
+        <v>44927.12916666667</v>
       </c>
       <c r="B188" t="n">
-        <v>27.10377736708014</v>
+        <v>25.64283473994474</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44927.13055555556</v>
+        <v>44927.12986111111</v>
       </c>
       <c r="B189" t="n">
-        <v>24.58483709655896</v>
+        <v>27.10377736708014</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>44927.13125</v>
+        <v>44927.13055555556</v>
       </c>
       <c r="B190" t="n">
-        <v>25.78296287164936</v>
+        <v>24.58483709655896</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>44927.13194444445</v>
+        <v>44927.13125</v>
       </c>
       <c r="B191" t="n">
-        <v>24.40047575047161</v>
+        <v>25.78296287164936</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44927.13263888889</v>
+        <v>44927.13194444445</v>
       </c>
       <c r="B192" t="n">
-        <v>24.50278327893149</v>
+        <v>24.40047575047161</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44927.13333333333</v>
+        <v>44927.13263888889</v>
       </c>
       <c r="B193" t="n">
-        <v>26.43790589738229</v>
+        <v>24.50278327893149</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44927.13402777778</v>
+        <v>44927.13333333333</v>
       </c>
       <c r="B194" t="n">
-        <v>27.2802131808981</v>
+        <v>26.43790589738229</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44927.13472222222</v>
+        <v>44927.13402777778</v>
       </c>
       <c r="B195" t="n">
-        <v>27.53321344352766</v>
+        <v>27.2802131808981</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44927.13541666666</v>
+        <v>44927.13472222222</v>
       </c>
       <c r="B196" t="n">
-        <v>25.64186122542839</v>
+        <v>27.53321344352766</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44927.13611111111</v>
+        <v>44927.13541666666</v>
       </c>
       <c r="B197" t="n">
-        <v>25.30891420983632</v>
+        <v>25.64186122542839</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44927.13680555556</v>
+        <v>44927.13611111111</v>
       </c>
       <c r="B198" t="n">
-        <v>26.42993623917614</v>
+        <v>25.30891420983632</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44927.1375</v>
+        <v>44927.13680555556</v>
       </c>
       <c r="B199" t="n">
-        <v>24.18765783186472</v>
+        <v>26.42993623917614</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44927.13819444444</v>
+        <v>44927.1375</v>
       </c>
       <c r="B200" t="n">
-        <v>27.56005362176538</v>
+        <v>24.18765783186472</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44927.13888888889</v>
+        <v>44927.13819444444</v>
       </c>
       <c r="B201" t="n">
-        <v>27.30706004428682</v>
+        <v>27.56005362176538</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>44927.13958333333</v>
+        <v>44927.13888888889</v>
       </c>
       <c r="B202" t="n">
-        <v>27.32791668383908</v>
+        <v>27.30706004428682</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>44927.14027777778</v>
+        <v>44927.13958333333</v>
       </c>
       <c r="B203" t="n">
-        <v>26.01317918439367</v>
+        <v>27.32791668383908</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>44927.14097222222</v>
+        <v>44927.14027777778</v>
       </c>
       <c r="B204" t="n">
-        <v>28.17794369681986</v>
+        <v>26.01317918439367</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44927.14166666667</v>
+        <v>44927.14097222222</v>
       </c>
       <c r="B205" t="n">
-        <v>23.35382852592216</v>
+        <v>28.17794369681986</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44927.14236111111</v>
+        <v>44927.14166666667</v>
       </c>
       <c r="B206" t="n">
-        <v>25.34118639844736</v>
+        <v>23.35382852592216</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>44927.14305555556</v>
+        <v>44927.14236111111</v>
       </c>
       <c r="B207" t="n">
-        <v>25.50272129982459</v>
+        <v>25.34118639844736</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44927.14375</v>
+        <v>44927.14305555556</v>
       </c>
       <c r="B208" t="n">
-        <v>26.27020316543302</v>
+        <v>25.50272129982459</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>44927.14444444444</v>
+        <v>44927.14375</v>
       </c>
       <c r="B209" t="n">
-        <v>25.80165205202912</v>
+        <v>26.27020316543302</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>44927.14513888889</v>
+        <v>44927.14444444444</v>
       </c>
       <c r="B210" t="n">
-        <v>29.85914693043042</v>
+        <v>25.80165205202912</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44927.14583333334</v>
+        <v>44927.14513888889</v>
       </c>
       <c r="B211" t="n">
-        <v>28.46309550127173</v>
+        <v>29.85914693043042</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44927.14652777778</v>
+        <v>44927.14583333334</v>
       </c>
       <c r="B212" t="n">
-        <v>23.86011446718075</v>
+        <v>28.46309550127173</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>44927.14722222222</v>
+        <v>44927.14652777778</v>
       </c>
       <c r="B213" t="n">
-        <v>26.51686488619688</v>
+        <v>23.86011446718075</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>44927.14791666667</v>
+        <v>44927.14722222222</v>
       </c>
       <c r="B214" t="n">
-        <v>25.42464837878964</v>
+        <v>26.51686488619688</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>44927.14861111111</v>
+        <v>44927.14791666667</v>
       </c>
       <c r="B215" t="n">
-        <v>28.22536603835349</v>
+        <v>25.42464837878964</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>44927.14930555555</v>
+        <v>44927.14861111111</v>
       </c>
       <c r="B216" t="n">
-        <v>24.0832506307007</v>
+        <v>28.22536603835349</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>44927.15</v>
+        <v>44927.14930555555</v>
       </c>
       <c r="B217" t="n">
-        <v>27.06754444159179</v>
+        <v>24.0832506307007</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>44927.15069444444</v>
+        <v>44927.15</v>
       </c>
       <c r="B218" t="n">
-        <v>25.51411016337424</v>
+        <v>27.06754444159179</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>44927.15138888889</v>
+        <v>44927.15069444444</v>
       </c>
       <c r="B219" t="n">
-        <v>27.12655074153005</v>
+        <v>25.51411016337424</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>44927.15208333333</v>
+        <v>44927.15138888889</v>
       </c>
       <c r="B220" t="n">
-        <v>28.55626043590245</v>
+        <v>27.12655074153005</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>44927.15277777778</v>
+        <v>44927.15208333333</v>
       </c>
       <c r="B221" t="n">
-        <v>28.88405308271992</v>
+        <v>28.55626043590245</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>44927.15347222222</v>
+        <v>44927.15277777778</v>
       </c>
       <c r="B222" t="n">
-        <v>24.44229446616482</v>
+        <v>28.88405308271992</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>44927.15416666667</v>
+        <v>44927.15347222222</v>
       </c>
       <c r="B223" t="n">
-        <v>24.91563834085417</v>
+        <v>24.44229446616482</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>44927.15486111111</v>
+        <v>44927.15416666667</v>
       </c>
       <c r="B224" t="n">
-        <v>24.50320810744464</v>
+        <v>24.91563834085417</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>44927.15555555555</v>
+        <v>44927.15486111111</v>
       </c>
       <c r="B225" t="n">
-        <v>25.2243993791293</v>
+        <v>24.50320810744464</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>44927.15625</v>
+        <v>44927.15555555555</v>
       </c>
       <c r="B226" t="n">
-        <v>25.62934494817277</v>
+        <v>25.2243993791293</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>44927.15694444445</v>
+        <v>44927.15625</v>
       </c>
       <c r="B227" t="n">
-        <v>25.54969674242441</v>
+        <v>25.62934494817277</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>44927.15763888889</v>
+        <v>44927.15694444445</v>
       </c>
       <c r="B228" t="n">
-        <v>26.08198798210166</v>
+        <v>25.54969674242441</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>44927.15833333333</v>
+        <v>44927.15763888889</v>
       </c>
       <c r="B229" t="n">
-        <v>24.10590871272129</v>
+        <v>26.08198798210166</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>44927.15902777778</v>
+        <v>44927.15833333333</v>
       </c>
       <c r="B230" t="n">
-        <v>25.26128037056555</v>
+        <v>24.10590871272129</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>44927.15972222222</v>
+        <v>44927.15902777778</v>
       </c>
       <c r="B231" t="n">
-        <v>26.19566731935758</v>
+        <v>25.26128037056555</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>44927.16041666667</v>
+        <v>44927.15972222222</v>
       </c>
       <c r="B232" t="n">
-        <v>24.68832771261804</v>
+        <v>26.19566731935758</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>44927.16111111111</v>
+        <v>44927.16041666667</v>
       </c>
       <c r="B233" t="n">
-        <v>24.56941974977971</v>
+        <v>24.68832771261804</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>44927.16180555556</v>
+        <v>44927.16111111111</v>
       </c>
       <c r="B234" t="n">
-        <v>26.85329335383032</v>
+        <v>24.56941974977971</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>44927.1625</v>
+        <v>44927.16180555556</v>
       </c>
       <c r="B235" t="n">
-        <v>25.22617802651761</v>
+        <v>26.85329335383032</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>44927.16319444445</v>
+        <v>44927.1625</v>
       </c>
       <c r="B236" t="n">
-        <v>24.49302548220921</v>
+        <v>25.22617802651761</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>44927.16388888889</v>
+        <v>44927.16319444445</v>
       </c>
       <c r="B237" t="n">
-        <v>25.40720689631687</v>
+        <v>24.49302548220921</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>44927.16458333333</v>
+        <v>44927.16388888889</v>
       </c>
       <c r="B238" t="n">
-        <v>25.07332279997009</v>
+        <v>25.40720689631687</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>44927.16527777778</v>
+        <v>44927.16458333333</v>
       </c>
       <c r="B239" t="n">
-        <v>22.46520194319207</v>
+        <v>25.07332279997009</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>44927.16597222222</v>
+        <v>44927.16527777778</v>
       </c>
       <c r="B240" t="n">
-        <v>25.13889634291057</v>
+        <v>22.46520194319207</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>44927.16666666666</v>
+        <v>44927.16597222222</v>
       </c>
       <c r="B241" t="n">
-        <v>22.51459630351995</v>
+        <v>25.13889634291057</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>44927.16736111111</v>
+        <v>44927.16666666666</v>
       </c>
       <c r="B242" t="n">
-        <v>25.56295608804984</v>
+        <v>22.51459630351995</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>44927.16805555556</v>
+        <v>44927.16736111111</v>
       </c>
       <c r="B243" t="n">
-        <v>26.25334017516118</v>
+        <v>25.56295608804984</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>44927.16875</v>
+        <v>44927.16805555556</v>
       </c>
       <c r="B244" t="n">
-        <v>24.96456407889105</v>
+        <v>26.25334017516118</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>44927.16944444444</v>
+        <v>44927.16875</v>
       </c>
       <c r="B245" t="n">
-        <v>23.04128158335562</v>
+        <v>24.96456407889105</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>44927.17013888889</v>
+        <v>44927.16944444444</v>
       </c>
       <c r="B246" t="n">
-        <v>24.32896139609146</v>
+        <v>23.04128158335562</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>44927.17083333333</v>
+        <v>44927.17013888889</v>
       </c>
       <c r="B247" t="n">
-        <v>24.27843625709041</v>
+        <v>24.32896139609146</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>44927.17152777778</v>
+        <v>44927.17083333333</v>
       </c>
       <c r="B248" t="n">
-        <v>24.68855838418883</v>
+        <v>24.27843625709041</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>44927.17222222222</v>
+        <v>44927.17152777778</v>
       </c>
       <c r="B249" t="n">
-        <v>25.36812666587279</v>
+        <v>24.68855838418883</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>44927.17291666667</v>
+        <v>44927.17222222222</v>
       </c>
       <c r="B250" t="n">
-        <v>24.06788721676523</v>
+        <v>25.36812666587279</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>44927.17361111111</v>
+        <v>44927.17291666667</v>
       </c>
       <c r="B251" t="n">
-        <v>25.60670520780034</v>
+        <v>24.06788721676523</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>44927.17430555556</v>
+        <v>44927.17361111111</v>
       </c>
       <c r="B252" t="n">
-        <v>25.16146722547824</v>
+        <v>25.60670520780034</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>44927.175</v>
+        <v>44927.17430555556</v>
       </c>
       <c r="B253" t="n">
-        <v>26.03105601025412</v>
+        <v>25.16146722547824</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>44927.17569444444</v>
+        <v>44927.175</v>
       </c>
       <c r="B254" t="n">
-        <v>24.91690824931793</v>
+        <v>26.03105601025412</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>44927.17638888889</v>
+        <v>44927.17569444444</v>
       </c>
       <c r="B255" t="n">
-        <v>26.27230427449321</v>
+        <v>24.91690824931793</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>44927.17708333334</v>
+        <v>44927.17638888889</v>
       </c>
       <c r="B256" t="n">
-        <v>22.88921409363125</v>
+        <v>26.27230427449321</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>44927.17777777778</v>
+        <v>44927.17708333334</v>
       </c>
       <c r="B257" t="n">
-        <v>25.04193059224034</v>
+        <v>22.88921409363125</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>44927.17847222222</v>
+        <v>44927.17777777778</v>
       </c>
       <c r="B258" t="n">
-        <v>25.06909356360018</v>
+        <v>25.04193059224034</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>44927.17916666667</v>
+        <v>44927.17847222222</v>
       </c>
       <c r="B259" t="n">
-        <v>28.38500903907645</v>
+        <v>25.06909356360018</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>44927.17986111111</v>
+        <v>44927.17916666667</v>
       </c>
       <c r="B260" t="n">
-        <v>25.10048271662339</v>
+        <v>28.38500903907645</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>44927.18055555555</v>
+        <v>44927.17986111111</v>
       </c>
       <c r="B261" t="n">
-        <v>28.26303324732668</v>
+        <v>25.10048271662339</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>44927.18125</v>
+        <v>44927.18055555555</v>
       </c>
       <c r="B262" t="n">
-        <v>25.28387620475097</v>
+        <v>28.26303324732668</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>44927.18194444444</v>
+        <v>44927.18125</v>
       </c>
       <c r="B263" t="n">
-        <v>21.97270616760727</v>
+        <v>25.28387620475097</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>44927.18263888889</v>
+        <v>44927.18194444444</v>
       </c>
       <c r="B264" t="n">
-        <v>26.25094669757909</v>
+        <v>21.97270616760727</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>44927.18333333333</v>
+        <v>44927.18263888889</v>
       </c>
       <c r="B265" t="n">
-        <v>23.19217929936394</v>
+        <v>26.25094669757909</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>44927.18402777778</v>
+        <v>44927.18333333333</v>
       </c>
       <c r="B266" t="n">
-        <v>24.1797428799987</v>
+        <v>23.19217929936394</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>44927.18472222222</v>
+        <v>44927.18402777778</v>
       </c>
       <c r="B267" t="n">
-        <v>25.20029992569228</v>
+        <v>24.1797428799987</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>44927.18541666667</v>
+        <v>44927.18472222222</v>
       </c>
       <c r="B268" t="n">
-        <v>26.6058703855823</v>
+        <v>25.20029992569228</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>44927.18611111111</v>
+        <v>44927.18541666667</v>
       </c>
       <c r="B269" t="n">
-        <v>22.6897230967439</v>
+        <v>26.6058703855823</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>44927.18680555555</v>
+        <v>44927.18611111111</v>
       </c>
       <c r="B270" t="n">
-        <v>27.4027367537767</v>
+        <v>22.6897230967439</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>44927.1875</v>
+        <v>44927.18680555555</v>
       </c>
       <c r="B271" t="n">
-        <v>26.04632312130008</v>
+        <v>27.4027367537767</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>44927.18819444445</v>
+        <v>44927.1875</v>
       </c>
       <c r="B272" t="n">
-        <v>27.15719220765858</v>
+        <v>26.04632312130008</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>44927.18888888889</v>
+        <v>44927.18819444445</v>
       </c>
       <c r="B273" t="n">
-        <v>26.20219908242635</v>
+        <v>27.15719220765858</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>44927.18958333333</v>
+        <v>44927.18888888889</v>
       </c>
       <c r="B274" t="n">
-        <v>24.69662313425407</v>
+        <v>26.20219908242635</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>44927.19027777778</v>
+        <v>44927.18958333333</v>
       </c>
       <c r="B275" t="n">
-        <v>26.75042819821144</v>
+        <v>24.69662313425407</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>44927.19097222222</v>
+        <v>44927.19027777778</v>
       </c>
       <c r="B276" t="n">
-        <v>23.9815448204398</v>
+        <v>26.75042819821144</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>44927.19166666667</v>
+        <v>44927.19097222222</v>
       </c>
       <c r="B277" t="n">
-        <v>21.83183442307084</v>
+        <v>23.9815448204398</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>44927.19236111111</v>
+        <v>44927.19166666667</v>
       </c>
       <c r="B278" t="n">
-        <v>24.96698854460967</v>
+        <v>21.83183442307084</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>44927.19305555556</v>
+        <v>44927.19236111111</v>
       </c>
       <c r="B279" t="n">
-        <v>25.02159972123994</v>
+        <v>24.96698854460967</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>44927.19375</v>
+        <v>44927.19305555556</v>
       </c>
       <c r="B280" t="n">
-        <v>26.61549743360594</v>
+        <v>25.02159972123994</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>44927.19444444445</v>
+        <v>44927.19375</v>
       </c>
       <c r="B281" t="n">
-        <v>24.97264850463489</v>
+        <v>26.61549743360594</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>44927.19513888889</v>
+        <v>44927.19444444445</v>
       </c>
       <c r="B282" t="n">
-        <v>30.08343256057786</v>
+        <v>24.97264850463489</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>44927.19583333333</v>
+        <v>44927.19513888889</v>
       </c>
       <c r="B283" t="n">
-        <v>23.98645424602498</v>
+        <v>30.08343256057786</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>44927.19652777778</v>
+        <v>44927.19583333333</v>
       </c>
       <c r="B284" t="n">
-        <v>23.5616668831269</v>
+        <v>23.98645424602498</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>44927.19722222222</v>
+        <v>44927.19652777778</v>
       </c>
       <c r="B285" t="n">
-        <v>23.53432001536247</v>
+        <v>23.5616668831269</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>44927.19791666666</v>
+        <v>44927.19722222222</v>
       </c>
       <c r="B286" t="n">
-        <v>27.08797604808138</v>
+        <v>23.53432001536247</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>44927.19861111111</v>
+        <v>44927.19791666666</v>
       </c>
       <c r="B287" t="n">
-        <v>25.06046265791328</v>
+        <v>27.08797604808138</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>44927.19930555556</v>
+        <v>44927.19861111111</v>
       </c>
       <c r="B288" t="n">
-        <v>27.24950643841738</v>
+        <v>25.06046265791328</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>44927.2</v>
+        <v>44927.19930555556</v>
       </c>
       <c r="B289" t="n">
-        <v>30.18629550915737</v>
+        <v>27.24950643841738</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>44927.20069444444</v>
+        <v>44927.2</v>
       </c>
       <c r="B290" t="n">
-        <v>24.93976943986173</v>
+        <v>30.18629550915737</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>44927.20138888889</v>
+        <v>44927.20069444444</v>
       </c>
       <c r="B291" t="n">
-        <v>25.27135633436954</v>
+        <v>24.93976943986173</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>44927.20208333333</v>
+        <v>44927.20138888889</v>
       </c>
       <c r="B292" t="n">
-        <v>24.88685205403214</v>
+        <v>25.27135633436954</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>44927.20277777778</v>
+        <v>44927.20208333333</v>
       </c>
       <c r="B293" t="n">
-        <v>23.59077798549005</v>
+        <v>24.88685205403214</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>44927.20347222222</v>
+        <v>44927.20277777778</v>
       </c>
       <c r="B294" t="n">
-        <v>23.74234653633982</v>
+        <v>23.59077798549005</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>44927.20416666667</v>
+        <v>44927.20347222222</v>
       </c>
       <c r="B295" t="n">
-        <v>23.91457545892552</v>
+        <v>23.74234653633982</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>44927.20486111111</v>
+        <v>44927.20416666667</v>
       </c>
       <c r="B296" t="n">
-        <v>24.49669468739886</v>
+        <v>23.91457545892552</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>44927.20555555556</v>
+        <v>44927.20486111111</v>
       </c>
       <c r="B297" t="n">
-        <v>24.0337177585063</v>
+        <v>24.49669468739886</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>44927.20625</v>
+        <v>44927.20555555556</v>
       </c>
       <c r="B298" t="n">
-        <v>24.19045696461983</v>
+        <v>24.0337177585063</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>44927.20694444444</v>
+        <v>44927.20625</v>
       </c>
       <c r="B299" t="n">
-        <v>25.50691583499143</v>
+        <v>24.19045696461983</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>44927.20763888889</v>
+        <v>44927.20694444444</v>
       </c>
       <c r="B300" t="n">
-        <v>23.16948207580461</v>
+        <v>25.50691583499143</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>44927.20833333334</v>
+        <v>44927.20763888889</v>
       </c>
       <c r="B301" t="n">
-        <v>24.67361785815448</v>
+        <v>23.16948207580461</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>44927.20902777778</v>
+        <v>44927.20833333334</v>
       </c>
       <c r="B302" t="n">
-        <v>22.31638197288369</v>
+        <v>24.67361785815448</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>44927.20972222222</v>
+        <v>44927.20902777778</v>
       </c>
       <c r="B303" t="n">
-        <v>29.73773791577021</v>
+        <v>22.31638197288369</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>44927.21041666667</v>
+        <v>44927.20972222222</v>
       </c>
       <c r="B304" t="n">
-        <v>29.3349372845618</v>
+        <v>29.73773791577021</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>44927.21111111111</v>
+        <v>44927.21041666667</v>
       </c>
       <c r="B305" t="n">
-        <v>25.91464503780265</v>
+        <v>29.3349372845618</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>44927.21180555555</v>
+        <v>44927.21111111111</v>
       </c>
       <c r="B306" t="n">
-        <v>23.61917086577682</v>
+        <v>25.91464503780265</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>44927.2125</v>
+        <v>44927.21180555555</v>
       </c>
       <c r="B307" t="n">
-        <v>26.58911343469429</v>
+        <v>23.61917086577682</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>44927.21319444444</v>
+        <v>44927.2125</v>
       </c>
       <c r="B308" t="n">
-        <v>24.85674149186615</v>
+        <v>26.58911343469429</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>44927.21388888889</v>
+        <v>44927.21319444444</v>
       </c>
       <c r="B309" t="n">
-        <v>24.67214025752644</v>
+        <v>24.85674149186615</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>44927.21458333333</v>
+        <v>44927.21388888889</v>
       </c>
       <c r="B310" t="n">
-        <v>26.55447012981088</v>
+        <v>24.67214025752644</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>44927.21527777778</v>
+        <v>44927.21458333333</v>
       </c>
       <c r="B311" t="n">
-        <v>23.73624379826122</v>
+        <v>26.55447012981088</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>44927.21597222222</v>
+        <v>44927.21527777778</v>
       </c>
       <c r="B312" t="n">
-        <v>26.61876300274026</v>
+        <v>23.73624379826122</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>44927.21666666667</v>
+        <v>44927.21597222222</v>
       </c>
       <c r="B313" t="n">
-        <v>25.81537131644168</v>
+        <v>26.61876300274026</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>44927.21736111111</v>
+        <v>44927.21666666667</v>
       </c>
       <c r="B314" t="n">
-        <v>27.74975092911419</v>
+        <v>25.81537131644168</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>44927.21805555555</v>
+        <v>44927.21736111111</v>
       </c>
       <c r="B315" t="n">
-        <v>24.75212910593446</v>
+        <v>27.74975092911419</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>44927.21875</v>
+        <v>44927.21805555555</v>
       </c>
       <c r="B316" t="n">
-        <v>23.31164376771256</v>
+        <v>24.75212910593446</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>44927.21944444445</v>
+        <v>44927.21875</v>
       </c>
       <c r="B317" t="n">
-        <v>25.34023337841235</v>
+        <v>23.31164376771256</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>44927.22013888889</v>
+        <v>44927.21944444445</v>
       </c>
       <c r="B318" t="n">
-        <v>21.48345193785657</v>
+        <v>25.34023337841235</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>44927.22083333333</v>
+        <v>44927.22013888889</v>
       </c>
       <c r="B319" t="n">
-        <v>21.4834868433299</v>
+        <v>21.48345193785657</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>44927.22152777778</v>
+        <v>44927.22083333333</v>
       </c>
       <c r="B320" t="n">
-        <v>26.39637300514543</v>
+        <v>21.4834868433299</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>44927.22222222222</v>
+        <v>44927.22152777778</v>
       </c>
       <c r="B321" t="n">
-        <v>24.70378383028784</v>
+        <v>26.39637300514543</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>44927.22291666667</v>
+        <v>44927.22222222222</v>
       </c>
       <c r="B322" t="n">
-        <v>24.71425104890082</v>
+        <v>24.70378383028784</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>44927.22361111111</v>
+        <v>44927.22291666667</v>
       </c>
       <c r="B323" t="n">
-        <v>26.59025781453734</v>
+        <v>24.71425104890082</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>44927.22430555556</v>
+        <v>44927.22361111111</v>
       </c>
       <c r="B324" t="n">
-        <v>30.67332277987364</v>
+        <v>26.59025781453734</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>44927.225</v>
+        <v>44927.22430555556</v>
       </c>
       <c r="B325" t="n">
-        <v>24.46477154358696</v>
+        <v>30.67332277987364</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>44927.22569444445</v>
+        <v>44927.225</v>
       </c>
       <c r="B326" t="n">
-        <v>27.71272861320065</v>
+        <v>24.46477154358696</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>44927.22638888889</v>
+        <v>44927.22569444445</v>
       </c>
       <c r="B327" t="n">
-        <v>27.78960048583655</v>
+        <v>27.71272861320065</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>44927.22708333333</v>
+        <v>44927.22638888889</v>
       </c>
       <c r="B328" t="n">
-        <v>28.22493159272328</v>
+        <v>27.78960048583655</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>44927.22777777778</v>
+        <v>44927.22708333333</v>
       </c>
       <c r="B329" t="n">
-        <v>27.40582857197196</v>
+        <v>28.22493159272328</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>44927.22847222222</v>
+        <v>44927.22777777778</v>
       </c>
       <c r="B330" t="n">
-        <v>25.08923060401185</v>
+        <v>27.40582857197196</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>44927.22916666666</v>
+        <v>44927.22847222222</v>
       </c>
       <c r="B331" t="n">
-        <v>22.44409157967626</v>
+        <v>25.08923060401185</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>44927.22986111111</v>
+        <v>44927.22916666666</v>
       </c>
       <c r="B332" t="n">
-        <v>29.47325610966571</v>
+        <v>22.44409157967626</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>44927.23055555556</v>
+        <v>44927.22986111111</v>
       </c>
       <c r="B333" t="n">
-        <v>25.71575346346856</v>
+        <v>29.47325610966571</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>44927.23125</v>
+        <v>44927.23055555556</v>
       </c>
       <c r="B334" t="n">
-        <v>23.21568227391361</v>
+        <v>25.71575346346856</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>44927.23194444444</v>
+        <v>44927.23125</v>
       </c>
       <c r="B335" t="n">
-        <v>24.70414837782101</v>
+        <v>23.21568227391361</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>44927.23263888889</v>
+        <v>44927.23194444444</v>
       </c>
       <c r="B336" t="n">
-        <v>26.31937373719063</v>
+        <v>24.70414837782101</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>44927.23333333333</v>
+        <v>44927.23263888889</v>
       </c>
       <c r="B337" t="n">
-        <v>24.11040419458594</v>
+        <v>26.31937373719063</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>44927.23402777778</v>
+        <v>44927.23333333333</v>
       </c>
       <c r="B338" t="n">
-        <v>25.95070788179808</v>
+        <v>24.11040419458594</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>44927.23472222222</v>
+        <v>44927.23402777778</v>
       </c>
       <c r="B339" t="n">
-        <v>26.92843711455637</v>
+        <v>25.95070788179808</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>44927.23541666667</v>
+        <v>44927.23472222222</v>
       </c>
       <c r="B340" t="n">
-        <v>25.81316072866978</v>
+        <v>26.92843711455637</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>44927.23611111111</v>
+        <v>44927.23541666667</v>
       </c>
       <c r="B341" t="n">
-        <v>25.63205906678606</v>
+        <v>25.81316072866978</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>44927.23680555556</v>
+        <v>44927.23611111111</v>
       </c>
       <c r="B342" t="n">
-        <v>24.02528686403829</v>
+        <v>25.63205906678606</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>44927.2375</v>
+        <v>44927.23680555556</v>
       </c>
       <c r="B343" t="n">
-        <v>25.84194256450778</v>
+        <v>24.02528686403829</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>44927.23819444444</v>
+        <v>44927.2375</v>
       </c>
       <c r="B344" t="n">
-        <v>25.51212797928574</v>
+        <v>25.84194256450778</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>44927.23888888889</v>
+        <v>44927.23819444444</v>
       </c>
       <c r="B345" t="n">
-        <v>23.22430939507779</v>
+        <v>25.51212797928574</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>44927.23958333334</v>
+        <v>44927.23888888889</v>
       </c>
       <c r="B346" t="n">
-        <v>23.76287751670894</v>
+        <v>23.22430939507779</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>44927.24027777778</v>
+        <v>44927.23958333334</v>
       </c>
       <c r="B347" t="n">
-        <v>21.95469021891153</v>
+        <v>23.76287751670894</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>44927.24097222222</v>
+        <v>44927.24027777778</v>
       </c>
       <c r="B348" t="n">
-        <v>28.13989885078406</v>
+        <v>21.95469021891153</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>44927.24166666667</v>
+        <v>44927.24097222222</v>
       </c>
       <c r="B349" t="n">
-        <v>23.97977701587473</v>
+        <v>28.13989885078406</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>44927.24236111111</v>
+        <v>44927.24166666667</v>
       </c>
       <c r="B350" t="n">
-        <v>24.80098195429645</v>
+        <v>23.97977701587473</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>44927.24305555555</v>
+        <v>44927.24236111111</v>
       </c>
       <c r="B351" t="n">
-        <v>24.33520105688271</v>
+        <v>24.80098195429645</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>44927.24375</v>
+        <v>44927.24305555555</v>
       </c>
       <c r="B352" t="n">
-        <v>23.583511442933</v>
+        <v>24.33520105688271</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>44927.24444444444</v>
+        <v>44927.24375</v>
       </c>
       <c r="B353" t="n">
-        <v>21.94276275849005</v>
+        <v>23.583511442933</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>44927.24513888889</v>
+        <v>44927.24444444444</v>
       </c>
       <c r="B354" t="n">
-        <v>22.52652770499353</v>
+        <v>21.94276275849005</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>44927.24583333333</v>
+        <v>44927.24513888889</v>
       </c>
       <c r="B355" t="n">
-        <v>24.61987616468876</v>
+        <v>22.52652770499353</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>44927.24652777778</v>
+        <v>44927.24583333333</v>
       </c>
       <c r="B356" t="n">
-        <v>23.87770738130181</v>
+        <v>24.61987616468876</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>44927.24722222222</v>
+        <v>44927.24652777778</v>
       </c>
       <c r="B357" t="n">
-        <v>24.35201850824862</v>
+        <v>23.87770738130181</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>44927.24791666667</v>
+        <v>44927.24722222222</v>
       </c>
       <c r="B358" t="n">
-        <v>21.6250461910896</v>
+        <v>24.35201850824862</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>44927.24861111111</v>
+        <v>44927.24791666667</v>
       </c>
       <c r="B359" t="n">
-        <v>23.53394318756474</v>
+        <v>21.6250461910896</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>44927.24930555555</v>
+        <v>44927.24861111111</v>
       </c>
       <c r="B360" t="n">
-        <v>25.0162999796891</v>
+        <v>23.53394318756474</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>44927.25</v>
+        <v>44927.24930555555</v>
       </c>
       <c r="B361" t="n">
-        <v>24.95403216481508</v>
+        <v>25.0162999796891</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>44927.25069444445</v>
+        <v>44927.25</v>
       </c>
       <c r="B362" t="n">
-        <v>25.9524410281572</v>
+        <v>24.95403216481508</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>44927.25138888889</v>
+        <v>44927.25069444445</v>
       </c>
       <c r="B363" t="n">
-        <v>24.87766750350196</v>
+        <v>25.9524410281572</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>44927.25208333333</v>
+        <v>44927.25138888889</v>
       </c>
       <c r="B364" t="n">
-        <v>21.82504912947749</v>
+        <v>24.87766750350196</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>44927.25277777778</v>
+        <v>44927.25208333333</v>
       </c>
       <c r="B365" t="n">
-        <v>20.82990165239493</v>
+        <v>21.82504912947749</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>44927.25347222222</v>
+        <v>44927.25277777778</v>
       </c>
       <c r="B366" t="n">
-        <v>24.13246618899689</v>
+        <v>20.82990165239493</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>44927.25416666667</v>
+        <v>44927.25347222222</v>
       </c>
       <c r="B367" t="n">
-        <v>23.91987825014625</v>
+        <v>24.13246618899689</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>44927.25486111111</v>
+        <v>44927.25416666667</v>
       </c>
       <c r="B368" t="n">
-        <v>24.44636327454249</v>
+        <v>23.91987825014625</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>44927.25555555556</v>
+        <v>44927.25486111111</v>
       </c>
       <c r="B369" t="n">
-        <v>21.9178966174509</v>
+        <v>24.44636327454249</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>44927.25625</v>
+        <v>44927.25555555556</v>
       </c>
       <c r="B370" t="n">
-        <v>21.74952925092739</v>
+        <v>21.9178966174509</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>44927.25694444445</v>
+        <v>44927.25625</v>
       </c>
       <c r="B371" t="n">
-        <v>22.55335025525293</v>
+        <v>21.74952925092739</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>44927.25763888889</v>
+        <v>44927.25694444445</v>
       </c>
       <c r="B372" t="n">
-        <v>24.15567458211531</v>
+        <v>22.55335025525293</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>44927.25833333333</v>
+        <v>44927.25763888889</v>
       </c>
       <c r="B373" t="n">
-        <v>20.82435402217756</v>
+        <v>24.15567458211531</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>44927.25902777778</v>
+        <v>44927.25833333333</v>
       </c>
       <c r="B374" t="n">
-        <v>21.55026713061374</v>
+        <v>20.82435402217756</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>44927.25972222222</v>
+        <v>44927.25902777778</v>
       </c>
       <c r="B375" t="n">
-        <v>21.98961859663185</v>
+        <v>21.55026713061374</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>44927.26041666666</v>
+        <v>44927.25972222222</v>
       </c>
       <c r="B376" t="n">
-        <v>20.93225449429179</v>
+        <v>21.98961859663185</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>44927.26111111111</v>
+        <v>44927.26041666666</v>
       </c>
       <c r="B377" t="n">
-        <v>27.87474593188071</v>
+        <v>20.93225449429179</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>44927.26180555556</v>
+        <v>44927.26111111111</v>
       </c>
       <c r="B378" t="n">
-        <v>24.07240718395466</v>
+        <v>27.87474593188071</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>44927.2625</v>
+        <v>44927.26180555556</v>
       </c>
       <c r="B379" t="n">
-        <v>25.26332772877756</v>
+        <v>24.07240718395466</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>44927.26319444444</v>
+        <v>44927.2625</v>
       </c>
       <c r="B380" t="n">
-        <v>25.73738795176104</v>
+        <v>25.26332772877756</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>44927.26388888889</v>
+        <v>44927.26319444444</v>
       </c>
       <c r="B381" t="n">
-        <v>28.9205445862524</v>
+        <v>25.73738795176104</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>44927.26458333333</v>
+        <v>44927.26388888889</v>
       </c>
       <c r="B382" t="n">
-        <v>25.64813590211595</v>
+        <v>28.9205445862524</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>44927.26527777778</v>
+        <v>44927.26458333333</v>
       </c>
       <c r="B383" t="n">
-        <v>29.42503941495179</v>
+        <v>25.64813590211595</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>44927.26597222222</v>
+        <v>44927.26527777778</v>
       </c>
       <c r="B384" t="n">
-        <v>27.8704388271925</v>
+        <v>29.42503941495179</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>44927.26666666667</v>
+        <v>44927.26597222222</v>
       </c>
       <c r="B385" t="n">
-        <v>26.06161116629155</v>
+        <v>27.8704388271925</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>44927.26736111111</v>
+        <v>44927.26666666667</v>
       </c>
       <c r="B386" t="n">
-        <v>25.76854211760402</v>
+        <v>26.06161116629155</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>44927.26805555556</v>
+        <v>44927.26736111111</v>
       </c>
       <c r="B387" t="n">
-        <v>24.40548967225123</v>
+        <v>25.76854211760402</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>44927.26875</v>
+        <v>44927.26805555556</v>
       </c>
       <c r="B388" t="n">
-        <v>25.76467153104312</v>
+        <v>24.40548967225123</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>44927.26944444444</v>
+        <v>44927.26875</v>
       </c>
       <c r="B389" t="n">
-        <v>25.47152977961318</v>
+        <v>25.76467153104312</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>44927.27013888889</v>
+        <v>44927.26944444444</v>
       </c>
       <c r="B390" t="n">
-        <v>22.57487164195669</v>
+        <v>25.47152977961318</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>44927.27083333334</v>
+        <v>44927.27013888889</v>
       </c>
       <c r="B391" t="n">
-        <v>23.08848932722728</v>
+        <v>22.57487164195669</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>44927.27152777778</v>
+        <v>44927.27083333334</v>
       </c>
       <c r="B392" t="n">
-        <v>21.1210997405342</v>
+        <v>23.08848932722728</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>44927.27222222222</v>
+        <v>44927.27152777778</v>
       </c>
       <c r="B393" t="n">
-        <v>21.40039740685796</v>
+        <v>21.1210997405342</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>44927.27291666667</v>
+        <v>44927.27222222222</v>
       </c>
       <c r="B394" t="n">
-        <v>23.42218769366354</v>
+        <v>21.40039740685796</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>44927.27361111111</v>
+        <v>44927.27291666667</v>
       </c>
       <c r="B395" t="n">
-        <v>24.09491993117146</v>
+        <v>23.42218769366354</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>44927.27430555555</v>
+        <v>44927.27361111111</v>
       </c>
       <c r="B396" t="n">
-        <v>24.9643971322158</v>
+        <v>24.09491993117146</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>44927.275</v>
+        <v>44927.27430555555</v>
       </c>
       <c r="B397" t="n">
-        <v>21.60439516576017</v>
+        <v>24.9643971322158</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>44927.27569444444</v>
+        <v>44927.275</v>
       </c>
       <c r="B398" t="n">
-        <v>24.72499655239069</v>
+        <v>21.60439516576017</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>44927.27638888889</v>
+        <v>44927.27569444444</v>
       </c>
       <c r="B399" t="n">
-        <v>24.00351774796908</v>
+        <v>24.72499655239069</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>44927.27708333333</v>
+        <v>44927.27638888889</v>
       </c>
       <c r="B400" t="n">
-        <v>24.22406287933177</v>
+        <v>24.00351774796908</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>44927.27777777778</v>
+        <v>44927.27708333333</v>
       </c>
       <c r="B401" t="n">
-        <v>21.202395758324</v>
+        <v>24.22406287933177</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>44927.27847222222</v>
+        <v>44927.27777777778</v>
       </c>
       <c r="B402" t="n">
-        <v>23.28300322049778</v>
+        <v>21.202395758324</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>44927.27916666667</v>
+        <v>44927.27847222222</v>
       </c>
       <c r="B403" t="n">
-        <v>24.17372525676508</v>
+        <v>23.28300322049778</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>44927.27986111111</v>
+        <v>44927.27916666667</v>
       </c>
       <c r="B404" t="n">
-        <v>22.82812369946166</v>
+        <v>24.17372525676508</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>44927.28055555555</v>
+        <v>44927.27986111111</v>
       </c>
       <c r="B405" t="n">
-        <v>24.90424272223448</v>
+        <v>22.82812369946166</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>44927.28125</v>
+        <v>44927.28055555555</v>
       </c>
       <c r="B406" t="n">
-        <v>25.75097433543409</v>
+        <v>24.90424272223448</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>44927.28194444445</v>
+        <v>44927.28125</v>
       </c>
       <c r="B407" t="n">
-        <v>25.47215766293639</v>
+        <v>25.75097433543409</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>44927.28263888889</v>
+        <v>44927.28194444445</v>
       </c>
       <c r="B408" t="n">
-        <v>24.17988470587973</v>
+        <v>25.47215766293639</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>44927.28333333333</v>
+        <v>44927.28263888889</v>
       </c>
       <c r="B409" t="n">
-        <v>23.97001255924881</v>
+        <v>24.17988470587973</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>44927.28402777778</v>
+        <v>44927.28333333333</v>
       </c>
       <c r="B410" t="n">
-        <v>28.13840583152421</v>
+        <v>23.97001255924881</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>44927.28472222222</v>
+        <v>44927.28402777778</v>
       </c>
       <c r="B411" t="n">
-        <v>21.4925800293505</v>
+        <v>28.13840583152421</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>44927.28541666667</v>
+        <v>44927.28472222222</v>
       </c>
       <c r="B412" t="n">
-        <v>25.95861435879605</v>
+        <v>21.4925800293505</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>44927.28611111111</v>
+        <v>44927.28541666667</v>
       </c>
       <c r="B413" t="n">
-        <v>30.66901881676205</v>
+        <v>25.95861435879605</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>44927.28680555556</v>
+        <v>44927.28611111111</v>
       </c>
       <c r="B414" t="n">
-        <v>27.21620505326856</v>
+        <v>30.66901881676205</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>44927.2875</v>
+        <v>44927.28680555556</v>
       </c>
       <c r="B415" t="n">
-        <v>24.0463462771959</v>
+        <v>27.21620505326856</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
+        <v>44927.2875</v>
+      </c>
+      <c r="B416" t="n">
+        <v>24.0463462771959</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="2" t="n">
         <v>44927.28819444445</v>
       </c>
-      <c r="B416" t="n">
+      <c r="B417" t="n">
         <v>25.71817378316574</v>
       </c>
     </row>
